--- a/data/trans_dic/P55$familiarvive-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P55$familiarvive-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población a la que, al menos, le ayudaun familiar conviviente cuando tiene dificultades en la actividades instrumentales</t>
+          <t>Población a la que, al menos, le ayuda un familiar conviviente cuando tiene dificultades en la actividades instrumentales</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,18</t>
+          <t>0,0; 45,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,55</t>
+          <t>0,0; 50,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,52</t>
+          <t>0,0; 44,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,43; 34,98</t>
+          <t>7,9; 32,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,66; 77,75</t>
+          <t>11,95; 78,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,01; 31,87</t>
+          <t>4,03; 31,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,25</t>
+          <t>0,0; 44,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,14; 22,56</t>
+          <t>6,3; 22,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,42; 54,66</t>
+          <t>10,38; 52,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,19; 29,3</t>
+          <t>5,15; 26,81</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 30,57</t>
+          <t>2,43; 31,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,11; 24,19</t>
+          <t>8,94; 23,9</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,59</t>
+          <t>0,0; 34,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,88</t>
+          <t>0,0; 26,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,67; 54,54</t>
+          <t>6,99; 55,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,71; 45,35</t>
+          <t>5,74; 45,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,32; 51,59</t>
+          <t>12,71; 50,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,95; 66,21</t>
+          <t>34,49; 66,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,33; 53,75</t>
+          <t>17,05; 53,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,29; 40,28</t>
+          <t>20,25; 39,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,0; 36,38</t>
+          <t>10,58; 37,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,89; 49,53</t>
+          <t>24,87; 50,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19,01; 47,81</t>
+          <t>18,41; 47,81</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,21; 37,83</t>
+          <t>20,81; 38,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,02</t>
+          <t>0,0; 36,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,75</t>
+          <t>0,0; 38,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,31</t>
+          <t>0,0; 31,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 23,43</t>
+          <t>2,45; 20,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,71; 48,57</t>
+          <t>16,88; 47,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,1; 40,91</t>
+          <t>8,18; 40,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,24; 57,59</t>
+          <t>7,44; 56,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,58; 30,29</t>
+          <t>13,8; 30,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,52; 40,73</t>
+          <t>13,82; 39,41</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,67; 32,22</t>
+          <t>7,95; 32,16</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,73; 40,63</t>
+          <t>8,92; 40,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,16; 24,37</t>
+          <t>11,31; 24,45</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,22</t>
+          <t>0,0; 33,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,38; 39,75</t>
+          <t>5,32; 39,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,99</t>
+          <t>0,0; 40,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,37</t>
+          <t>0,0; 17,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,95; 34,76</t>
+          <t>6,89; 33,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,22; 45,69</t>
+          <t>15,8; 45,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,62; 40,46</t>
+          <t>8,29; 43,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,68; 18,28</t>
+          <t>4,6; 17,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,92; 29,66</t>
+          <t>6,81; 28,85</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,23; 37,65</t>
+          <t>14,73; 37,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,62; 32,79</t>
+          <t>7,57; 32,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,01; 14,53</t>
+          <t>4,5; 15,07</t>
         </is>
       </c>
     </row>
@@ -1284,17 +1285,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,59</t>
+          <t>0,0; 47,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,62; 74,92</t>
+          <t>11,55; 75,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,87</t>
+          <t>0,0; 83,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,49 +1305,49 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>21,63; 75,04</t>
+          <t>21,96; 73,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,45; 71,08</t>
+          <t>34,2; 74,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,95; 40,96</t>
+          <t>4,95; 39,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,85; 33,2</t>
+          <t>10,6; 36,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,43; 57,17</t>
+          <t>17,65; 56,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>33,09; 67,66</t>
+          <t>33,03; 65,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,17; 41,25</t>
+          <t>8,41; 41,81</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,99; 24,0</t>
+          <t>5,83; 22,56</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,21; 37,2</t>
+          <t>5,24; 37,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,63</t>
+          <t>0,0; 22,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,23; 38,18</t>
+          <t>5,24; 38,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,72; 15,14</t>
+          <t>1,68; 15,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,65; 47,55</t>
+          <t>13,09; 47,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,08; 35,92</t>
+          <t>5,09; 36,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,48; 50,07</t>
+          <t>10,14; 51,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,56; 19,52</t>
+          <t>5,52; 19,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,51; 38,34</t>
+          <t>10,78; 36,96</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,76; 25,46</t>
+          <t>2,76; 24,65</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>11,31; 40,83</t>
+          <t>11,0; 38,5</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,44; 15,37</t>
+          <t>5,33; 14,88</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,88; 54,38</t>
+          <t>10,22; 53,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,71; 49,03</t>
+          <t>10,69; 47,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,39</t>
+          <t>0,0; 25,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,09</t>
+          <t>0,0; 20,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,26; 46,51</t>
+          <t>16,56; 46,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,36; 38,26</t>
+          <t>13,04; 40,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,16; 40,73</t>
+          <t>15,52; 41,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,18; 30,31</t>
+          <t>13,58; 31,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,42; 43,81</t>
+          <t>18,0; 42,84</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15,61; 36,89</t>
+          <t>16,08; 37,19</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>11,55; 30,91</t>
+          <t>11,8; 30,43</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,32; 24,48</t>
+          <t>11,08; 24,4</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,99; 32,54</t>
+          <t>6,09; 31,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,46; 53,27</t>
+          <t>5,89; 54,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,05; 37,61</t>
+          <t>7,07; 41,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,61; 32,24</t>
+          <t>3,65; 31,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,3; 48,06</t>
+          <t>18,74; 48,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>11,76; 36,38</t>
+          <t>11,55; 35,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,2; 47,2</t>
+          <t>19,58; 49,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,15; 32,23</t>
+          <t>16,06; 32,65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>16,83; 36,81</t>
+          <t>17,24; 36,83</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12,6; 33,89</t>
+          <t>12,61; 34,27</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>17,65; 40,25</t>
+          <t>19,02; 40,94</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>15,72; 29,44</t>
+          <t>14,45; 28,56</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,86; 22,65</t>
+          <t>9,87; 22,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>12,08; 26,45</t>
+          <t>12,25; 26,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,5; 21,66</t>
+          <t>9,44; 21,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,31; 15,45</t>
+          <t>7,32; 15,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>24,39; 36,49</t>
+          <t>24,77; 37,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>23,66; 35,11</t>
+          <t>23,72; 35,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>21,34; 33,12</t>
+          <t>20,64; 33,14</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>16,94; 23,37</t>
+          <t>16,88; 23,33</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>20,76; 30,37</t>
+          <t>20,76; 29,66</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>21,13; 29,73</t>
+          <t>21,05; 29,7</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>18,6; 27,77</t>
+          <t>18,0; 28,01</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>14,88; 19,75</t>
+          <t>14,38; 19,64</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda un familiar conviviente cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2048</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>802</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4903</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3446</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3082</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>5508</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5494</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3884</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>9290</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3939</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5976</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4018</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2134; 8747</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1224; 8012</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1146; 9067</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11058</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2072; 7327</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1963; 9988</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2069; 10783</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>821; 10748</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5360; 14325</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2123</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3506</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3494</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6368</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>21703</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>12435</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16278</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8381</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>23826</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>15941</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>19772</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5674</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6296</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>890; 7052</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>884; 7021</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2887; 11417</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>14601; 27997</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6197; 19591</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>11141; 21578</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4123; 14473</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>16380; 33037</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>9036; 23465</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>14645; 26799</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>949</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1518</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2426</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11093</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5432</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5324</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9587</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12042</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7473</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>6843</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>12013</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3838</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5585</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4611</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>628; 5163</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6034; 17117</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2167; 10818</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1289; 9748</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6147; 13623</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6380; 18192</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3249; 13151</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2861; 12886</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7942; 17169</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1661</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3288</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5549</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11515</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6047</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3652</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>7210</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>14802</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>7976</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4255</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4494</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1025; 7692</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5625</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2855</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2198; 10745</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6236; 17869</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2435; 12771</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1652; 6408</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3087; 13071</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>8653; 21992</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3283; 14120</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2359; 7908</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>868</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3360</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1613</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>7591</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13583</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4542</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3156</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>8459</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>16943</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>6155</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3157</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4096</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1037; 6754</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4102</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 891</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3430; 11504</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>8639; 18866</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1195; 9527</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1710; 5890</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4282; 13816</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>11309; 22420</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2446; 12163</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1408; 5443</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2847</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1023</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2411</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1626</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>7440</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3274</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6194</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3500</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>10287</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>4297</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>8605</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>5126</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>941; 6655</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4145</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>783; 5729</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>406; 3848</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3659; 13183</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1083; 7742</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2372; 11977</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1743; 6245</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>4950; 16975</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>1085; 9703</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>4214; 14754</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>2972; 8295</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>7431</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1482</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>11797</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>12011</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>14954</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>11264</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>17089</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>19442</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>16925</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>12746</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1913; 9938</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3134; 13829</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6821</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4678</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>6486; 18323</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>6439; 19914</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>8739; 23560</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>7254; 16631</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>10418; 24801</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>12653; 29264</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>9764; 25184</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>8498; 18712</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>4994</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>5470</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>4898</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>2445</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>15627</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>9933</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>18003</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>13839</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>20621</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>15403</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>22900</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>16284</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1978; 10075</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1227; 11418</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1748; 10208</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>620; 5395</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>8913; 22985</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>5418; 16835</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>10900; 27623</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>9438; 19182</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>13803; 29486</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>8537; 23206</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>15292; 32920</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>10945; 21634</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>19522</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>26783</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>18647</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>16980</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>70076</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>80897</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>70581</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>65663</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>89598</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>107680</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>89229</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>82643</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>12488; 28367</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>17908; 38132</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>11466; 25897</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>11495; 23915</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>57205; 85990</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>66306; 98944</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>55186; 88615</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>55413; 76583</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>74219; 106044</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>89589; 126445</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>70004; 108901</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>69807; 95337</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>